--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/10/seed5/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.55579999999999</v>
+        <v>-10.9133</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.117199999999989</v>
+        <v>-7.247599999999992</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.80200000000001</v>
+        <v>16.5814</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.97659999999999</v>
+        <v>16.95689999999999</v>
       </c>
     </row>
     <row r="12">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.996799999999996</v>
+        <v>5.206599999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,13 +672,13 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.2273</v>
+        <v>-13.86759999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.54630000000001</v>
+        <v>16.51590000000001</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.2008</v>
+        <v>16.09270000000001</v>
       </c>
     </row>
     <row r="16">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.9473</v>
+        <v>-12.07280000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.498600000000002</v>
+        <v>-7.430400000000002</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.309</v>
+        <v>-13.6905</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.741899999999998</v>
+        <v>6.306599999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.62740000000001</v>
+        <v>-12.91870000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.016500000000002</v>
+        <v>8.853500000000006</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.11570000000001</v>
+        <v>16.14840000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.3895</v>
+        <v>-13.4062</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.648500000000001</v>
+        <v>5.3337</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.248200000000001</v>
+        <v>-7.230700000000001</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.71399999999999</v>
+        <v>-13.45189999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.064400000000004</v>
+        <v>6.490300000000001</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.829000000000002</v>
+        <v>4.618800000000002</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.538200000000001</v>
+        <v>5.339999999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.35589999999999</v>
+        <v>-14.44469999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.094699999999998</v>
+        <v>-8.113299999999995</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.4768</v>
+        <v>17.5285</v>
       </c>
     </row>
     <row r="65">
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.509299999999996</v>
+        <v>5.171799999999998</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.242799999999994</v>
+        <v>5.333399999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.2807</v>
+        <v>5.3447</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.409100000000004</v>
+        <v>-8.360499999999998</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-7.240599999999998</v>
+        <v>-7.202299999999995</v>
       </c>
       <c r="E89" t="n">
-        <v>17.23750000000001</v>
+        <v>17.77980000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1978,13 +1978,13 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.474400000000002</v>
+        <v>5.523300000000002</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.162899999999996</v>
+        <v>-6.245200000000001</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.077899999999999</v>
+        <v>-6.085600000000002</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.448399999999998</v>
+        <v>4.643199999999998</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.7501</v>
+        <v>-12.8185</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.1039</v>
+        <v>-13.3348</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.707299999999995</v>
+        <v>-7.948099999999998</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
